--- a/ucsb_ece.xlsx
+++ b/ucsb_ece.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>06</t>
   </si>
@@ -115,6 +115,9 @@
     <t>digital communication</t>
   </si>
   <si>
+    <t>digital signal</t>
+  </si>
+  <si>
     <t>pattern recognition</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>frequency synthesis</t>
   </si>
   <si>
+    <t>fiber optic</t>
+  </si>
+  <si>
     <t>science majors</t>
   </si>
   <si>
@@ -157,6 +163,12 @@
     <t>quantum electronics</t>
   </si>
   <si>
+    <t>basic numerical</t>
+  </si>
+  <si>
+    <t>methods linear</t>
+  </si>
+  <si>
     <t>linear algebra</t>
   </si>
   <si>
@@ -187,15 +199,27 @@
     <t>integrated circuits</t>
   </si>
   <si>
+    <t>speed digital</t>
+  </si>
+  <si>
+    <t>digital ic</t>
+  </si>
+  <si>
     <t>engineering •</t>
   </si>
   <si>
     <t>fourier transforms</t>
   </si>
   <si>
+    <t>discrete fourier</t>
+  </si>
+  <si>
     <t>optical fiber</t>
   </si>
   <si>
+    <t>mixed signal</t>
+  </si>
+  <si>
     <t>error detection</t>
   </si>
   <si>
@@ -211,6 +235,15 @@
     <t>logic synthesis</t>
   </si>
   <si>
+    <t>maximum likelihood</t>
+  </si>
+  <si>
+    <t>source coding</t>
+  </si>
+  <si>
+    <t>finite state</t>
+  </si>
+  <si>
     <t>materials majors</t>
   </si>
   <si>
@@ -235,171 +268,165 @@
     <t>numerical solution</t>
   </si>
   <si>
-    <t>maximum likelihood</t>
-  </si>
-  <si>
-    <t>source coding</t>
-  </si>
-  <si>
-    <t>finite state</t>
-  </si>
-  <si>
-    <t>difference methods</t>
-  </si>
-  <si>
-    <t>quantum wells</t>
-  </si>
-  <si>
-    <t>vlsi project</t>
-  </si>
-  <si>
-    <t>system performance</t>
+    <t>partial differential</t>
+  </si>
+  <si>
+    <t>circuit design</t>
+  </si>
+  <si>
+    <t>engineering electrical</t>
+  </si>
+  <si>
+    <t>vlsi design</t>
+  </si>
+  <si>
+    <t>systems design</t>
+  </si>
+  <si>
+    <t>advanced digital</t>
+  </si>
+  <si>
+    <t>ic design</t>
+  </si>
+  <si>
+    <t>digital vlsi</t>
+  </si>
+  <si>
+    <t>design cmos</t>
+  </si>
+  <si>
+    <t>transistor level</t>
+  </si>
+  <si>
+    <t>level design</t>
+  </si>
+  <si>
+    <t>amplifier design</t>
+  </si>
+  <si>
+    <t>system design</t>
+  </si>
+  <si>
+    <t>digital design</t>
+  </si>
+  <si>
+    <t>set architecture</t>
+  </si>
+  <si>
+    <t>studies intended</t>
+  </si>
+  <si>
+    <t>departmental curriculum</t>
+  </si>
+  <si>
+    <t>comments same</t>
+  </si>
+  <si>
+    <t>content instruction</t>
+  </si>
+  <si>
+    <t>engineering special</t>
+  </si>
+  <si>
+    <t>group meetings</t>
+  </si>
+  <si>
+    <t>meetings carried</t>
+  </si>
+  <si>
+    <t>mechanical engineering</t>
+  </si>
+  <si>
+    <t>systems theory</t>
+  </si>
+  <si>
+    <t>computer network</t>
+  </si>
+  <si>
+    <t>upper division</t>
+  </si>
+  <si>
+    <t>modulation schemes</t>
+  </si>
+  <si>
+    <t>communication theory</t>
+  </si>
+  <si>
+    <t>digital filter</t>
+  </si>
+  <si>
+    <t>groups design</t>
+  </si>
+  <si>
+    <t>language same</t>
+  </si>
+  <si>
+    <t>compensator design</t>
+  </si>
+  <si>
+    <t>signal compression</t>
+  </si>
+  <si>
+    <t>scientific computation</t>
+  </si>
+  <si>
+    <t>zaazz nanotechnology</t>
+  </si>
+  <si>
+    <t>imaging systems</t>
+  </si>
+  <si>
+    <t>high-performance digital</t>
+  </si>
+  <si>
+    <t>digital circuit</t>
+  </si>
+  <si>
+    <t>device physics</t>
+  </si>
+  <si>
+    <t>bb computer</t>
   </si>
   <si>
     <t>advanced computer</t>
   </si>
   <si>
-    <t>circuit design</t>
-  </si>
-  <si>
-    <t>vlsi design</t>
-  </si>
-  <si>
-    <t>systems design</t>
-  </si>
-  <si>
-    <t>digital signal</t>
-  </si>
-  <si>
-    <t>ic design</t>
-  </si>
-  <si>
-    <t>digital vlsi</t>
-  </si>
-  <si>
-    <t>transistor level</t>
-  </si>
-  <si>
-    <t>level design</t>
-  </si>
-  <si>
-    <t>amplifier design</t>
-  </si>
-  <si>
-    <t>system design</t>
-  </si>
-  <si>
-    <t>digital design</t>
-  </si>
-  <si>
-    <t>set architecture</t>
-  </si>
-  <si>
-    <t>studies intended</t>
-  </si>
-  <si>
-    <t>departmental curriculum</t>
-  </si>
-  <si>
-    <t>content instruction</t>
-  </si>
-  <si>
-    <t>group meetings</t>
-  </si>
-  <si>
-    <t>meetings carried</t>
-  </si>
-  <si>
-    <t>mechanical engineering</t>
-  </si>
-  <si>
-    <t>systems theory</t>
-  </si>
-  <si>
-    <t>computer network</t>
-  </si>
-  <si>
-    <t>upper division</t>
-  </si>
-  <si>
-    <t>modulation schemes</t>
-  </si>
-  <si>
-    <t>communication theory</t>
-  </si>
-  <si>
-    <t>digital filter</t>
-  </si>
-  <si>
-    <t>groups design</t>
-  </si>
-  <si>
-    <t>compensator design</t>
-  </si>
-  <si>
-    <t>signal compression</t>
-  </si>
-  <si>
-    <t>scientific computation</t>
-  </si>
-  <si>
-    <t>zaazz nanotechnology</t>
-  </si>
-  <si>
-    <t>link budget</t>
-  </si>
-  <si>
-    <t>digital modulation</t>
-  </si>
-  <si>
-    <t>wireless communication</t>
-  </si>
-  <si>
-    <t>imaging systems</t>
-  </si>
-  <si>
-    <t>digital circuit</t>
-  </si>
-  <si>
-    <t>device physics</t>
-  </si>
-  <si>
-    <t>bb computer</t>
-  </si>
-  <si>
     <t>electronic properties</t>
   </si>
   <si>
+    <t>mathematics a-b</t>
+  </si>
+  <si>
+    <t>design low-power</t>
+  </si>
+  <si>
+    <t>low-power design</t>
+  </si>
+  <si>
+    <t>techniques including</t>
+  </si>
+  <si>
     <t>modern vlsi</t>
   </si>
   <si>
     <t>vlsi processing</t>
   </si>
   <si>
-    <t>techniques including</t>
-  </si>
-  <si>
     <t>optimal estimation</t>
   </si>
   <si>
     <t>devices including</t>
   </si>
   <si>
-    <t>vlsi architecture</t>
-  </si>
-  <si>
-    <t>design low-power</t>
-  </si>
-  <si>
-    <t>low-power design</t>
-  </si>
-  <si>
     <t>digital circuits</t>
   </si>
   <si>
     <t>comments quarters</t>
   </si>
   <si>
+    <t>systems lab</t>
+  </si>
+  <si>
     <t>concepts discussed</t>
   </si>
   <si>
@@ -415,13 +442,13 @@
     <t>solar cells</t>
   </si>
   <si>
-    <t>systems lab</t>
-  </si>
-  <si>
     <t>systems project</t>
   </si>
   <si>
     <t>significant project</t>
+  </si>
+  <si>
+    <t>science a-b</t>
   </si>
 </sst>
 </file>
@@ -779,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1582,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1720,19 +1747,19 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1741,13 +1768,13 @@
         <v>4</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1758,40 +1785,40 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1802,40 +1829,40 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1843,43 +1870,43 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1896,13 +1923,13 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -1920,10 +1947,10 @@
         <v>4</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1934,19 +1961,19 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -1955,13 +1982,13 @@
         <v>4</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <v>4</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27">
         <v>4</v>
@@ -1978,40 +2005,40 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2022,40 +2049,40 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2075,31 +2102,31 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2160,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2201,10 +2228,10 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2216,22 +2243,22 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2248,16 +2275,16 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2289,37 +2316,37 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2330,40 +2357,40 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2377,37 +2404,37 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2427,31 +2454,31 @@
         <v>4</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2471,16 +2498,16 @@
         <v>4</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -2489,13 +2516,13 @@
         <v>4</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2503,43 +2530,43 @@
         <v>51</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2547,43 +2574,43 @@
         <v>52</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2591,19 +2618,19 @@
         <v>53</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2615,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2635,43 +2662,43 @@
         <v>54</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2685,37 +2712,37 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2726,40 +2753,40 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>4</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2814,16 +2841,16 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2832,19 +2859,19 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2867,31 +2894,31 @@
         <v>3</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2902,10 +2929,10 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2920,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2946,13 +2973,13 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2990,22 +3017,22 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3034,13 +3061,13 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3078,13 +3105,13 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3099,19 +3126,19 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3125,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3172,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3210,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3254,40 +3281,40 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3301,10 +3328,10 @@
         <v>3</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3319,19 +3346,19 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3345,22 +3372,22 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3369,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3451,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3612,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3656,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3700,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3747,31 +3774,31 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3800,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3826,40 +3853,40 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G70">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3870,40 +3897,40 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3914,22 +3941,22 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3958,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4005,37 +4032,37 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4049,37 +4076,37 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4093,37 +4120,37 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4137,25 +4164,25 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -4181,37 +4208,37 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4225,37 +4252,37 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4275,31 +4302,31 @@
         <v>3</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4313,13 +4340,13 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>3</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4328,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4357,19 +4384,19 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F82">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -4401,22 +4428,22 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F83">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4445,19 +4472,19 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -4466,16 +4493,16 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4489,37 +4516,37 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G85">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H85">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4533,19 +4560,19 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -4554,16 +4581,16 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4580,34 +4607,34 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4627,13 +4654,13 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -4671,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4715,31 +4742,31 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J90">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4759,31 +4786,31 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4803,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4847,31 +4874,31 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4891,31 +4918,31 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4935,31 +4962,31 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4982,13 +5009,13 @@
         <v>4</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H96">
         <v>4</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5023,13 +5050,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -5067,28 +5094,28 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5111,31 +5138,31 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5155,25 +5182,25 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -5199,31 +5226,31 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5243,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G102">
         <v>4</v>
@@ -5252,22 +5279,22 @@
         <v>4</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5287,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -5331,10 +5358,10 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -5375,31 +5402,31 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5419,16 +5446,16 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5463,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5475,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -5510,28 +5537,28 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5554,28 +5581,28 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J109">
         <v>4</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5598,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -5613,13 +5640,13 @@
         <v>4</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5642,28 +5669,28 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5686,28 +5713,28 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112">
         <v>3</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5736,22 +5763,22 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5780,19 +5807,19 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
       <c r="M114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -5824,22 +5851,22 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N115">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5868,22 +5895,22 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5912,22 +5939,22 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5956,22 +5983,22 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M118">
         <v>3</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6003,19 +6030,19 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6047,13 +6074,13 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K120">
         <v>0</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -6091,19 +6118,19 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6135,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -6144,10 +6171,10 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6182,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6226,15 +6253,411 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
         <v>4</v>
       </c>
     </row>
